--- a/data/trans_orig/P2A_fisi_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15710</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9149</v>
+        <v>8553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26320</v>
+        <v>24274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03315856939035987</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01930986517929302</v>
+        <v>0.01805180044162635</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05555429686291965</v>
+        <v>0.05123489047102183</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -765,19 +765,19 @@
         <v>10423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5214</v>
+        <v>5108</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18715</v>
+        <v>18348</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0339862981949223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01700204664025889</v>
+        <v>0.01665633493493517</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06102545467132774</v>
+        <v>0.05982743078394268</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -786,19 +786,19 @@
         <v>26133</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17190</v>
+        <v>17110</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39131</v>
+        <v>37074</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03348382529276765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02202510885010968</v>
+        <v>0.02192367706983998</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05013893944001314</v>
+        <v>0.047503288634494</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>458066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447456</v>
+        <v>449502</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>464627</v>
+        <v>465223</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9668414306096401</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9444457031370806</v>
+        <v>0.9487651095289781</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9806901348207072</v>
+        <v>0.9819481995583736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>288</v>
@@ -836,19 +836,19 @@
         <v>296257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>287965</v>
+        <v>288332</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>301466</v>
+        <v>301572</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9660137018050777</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9389745453286722</v>
+        <v>0.9401725692160571</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9829979533597411</v>
+        <v>0.9833436650650648</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>728</v>
@@ -857,19 +857,19 @@
         <v>754324</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>741326</v>
+        <v>743383</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>763267</v>
+        <v>763347</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9665161747072324</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.949861060559987</v>
+        <v>0.9524967113655061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9779748911498903</v>
+        <v>0.9780763229301601</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>9950</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4891</v>
+        <v>4705</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19190</v>
+        <v>19514</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02711738403243477</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01332995736022581</v>
+        <v>0.01282231777680819</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05229944709575148</v>
+        <v>0.05318112876714461</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -982,19 +982,19 @@
         <v>16315</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9765</v>
+        <v>9677</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26008</v>
+        <v>26619</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0438739594483241</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02625888072660923</v>
+        <v>0.0260217984706223</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06993907320904717</v>
+        <v>0.07158145637961882</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -1003,19 +1003,19 @@
         <v>26265</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17172</v>
+        <v>16918</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38695</v>
+        <v>38468</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03555158821824254</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02324357757809531</v>
+        <v>0.02289974795768934</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0523759165487403</v>
+        <v>0.05206875966466693</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>356984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>347744</v>
+        <v>347420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>362043</v>
+        <v>362229</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9728826159675652</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9477005529042485</v>
+        <v>0.9468188712328557</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9866700426397741</v>
+        <v>0.9871776822231919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>348</v>
@@ -1053,19 +1053,19 @@
         <v>355550</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>345857</v>
+        <v>345246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362100</v>
+        <v>362188</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9561260405516759</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9300609267909528</v>
+        <v>0.928418543620382</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9737411192733908</v>
+        <v>0.9739782015293779</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>689</v>
@@ -1074,19 +1074,19 @@
         <v>712534</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>700104</v>
+        <v>700331</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>721627</v>
+        <v>721881</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9644484117817574</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9476240834512598</v>
+        <v>0.9479312403353338</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9767564224219049</v>
+        <v>0.9771002520423107</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>32026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22029</v>
+        <v>22921</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43714</v>
+        <v>43405</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05904654294013521</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04061415219687171</v>
+        <v>0.04225923085852229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08059535901871362</v>
+        <v>0.08002536878259635</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>13650</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7292</v>
+        <v>7481</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22025</v>
+        <v>21479</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08135484431660094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04346320685590634</v>
+        <v>0.04458985974122002</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1312744112379743</v>
+        <v>0.1280157629602351</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1220,19 +1220,19 @@
         <v>45676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34314</v>
+        <v>34174</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59244</v>
+        <v>59157</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06431700505458916</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0483175214678637</v>
+        <v>0.04812031721894244</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08342155708761728</v>
+        <v>0.08329986338797142</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>510363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>498675</v>
+        <v>498984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520360</v>
+        <v>519468</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9409534570598648</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9194046409812864</v>
+        <v>0.9199746312174037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9593858478031284</v>
+        <v>0.9577407691414778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -1270,19 +1270,19 @@
         <v>154132</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145757</v>
+        <v>146303</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160490</v>
+        <v>160301</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9186451556833991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8687255887620252</v>
+        <v>0.8719842370397647</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9565367931440937</v>
+        <v>0.9554101402587799</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>650</v>
@@ -1291,19 +1291,19 @@
         <v>664495</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>650927</v>
+        <v>651014</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>675857</v>
+        <v>675997</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9356829949454109</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9165784429123827</v>
+        <v>0.9167001366120283</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9516824785321362</v>
+        <v>0.9518796827810575</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>77315</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61593</v>
+        <v>62018</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95492</v>
+        <v>95411</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06243491654869816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04973893820463485</v>
+        <v>0.05008164521049332</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07711336828190711</v>
+        <v>0.07704817621771402</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1416,19 +1416,19 @@
         <v>47262</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33307</v>
+        <v>34448</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62553</v>
+        <v>63188</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06616745336078382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04663008557739153</v>
+        <v>0.04822781452604507</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08757379569133228</v>
+        <v>0.08846291097193575</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>120</v>
@@ -1437,19 +1437,19 @@
         <v>124578</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>103065</v>
+        <v>102523</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149569</v>
+        <v>148378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06380031107352208</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05278268961956108</v>
+        <v>0.05250547884462312</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07659931106180441</v>
+        <v>0.07598940716878858</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1161019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1142842</v>
+        <v>1142923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1176741</v>
+        <v>1176316</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9375650834513019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.922886631718093</v>
+        <v>0.922951823782286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9502610617953652</v>
+        <v>0.9499183547895067</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>652</v>
@@ -1487,19 +1487,19 @@
         <v>667023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>651732</v>
+        <v>651097</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>680978</v>
+        <v>679837</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9338325466392162</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9124262043086676</v>
+        <v>0.9115370890280645</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9533699144226083</v>
+        <v>0.9517721854739549</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1798</v>
@@ -1508,19 +1508,19 @@
         <v>1828042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1803051</v>
+        <v>1804242</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1849555</v>
+        <v>1850097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.936199688926478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9234006889381954</v>
+        <v>0.9240105928312115</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9472173103804387</v>
+        <v>0.9474945211553769</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>22160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13714</v>
+        <v>13739</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32980</v>
+        <v>33006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06321386673114496</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03912056620124943</v>
+        <v>0.03919266809316574</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09407959359265729</v>
+        <v>0.09415330867925338</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -1633,19 +1633,19 @@
         <v>42365</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31367</v>
+        <v>30951</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55066</v>
+        <v>57348</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07448731692065061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05514974340642756</v>
+        <v>0.05441836492003645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09681943155894369</v>
+        <v>0.1008304206194463</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -1654,19 +1654,19 @@
         <v>64525</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49058</v>
+        <v>50858</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81474</v>
+        <v>80768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07018846257038688</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05336419684740669</v>
+        <v>0.05532159330353595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0886253603525166</v>
+        <v>0.08785698574725781</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>328395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>317575</v>
+        <v>317549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>336841</v>
+        <v>336816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9367861332688551</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9059204064073428</v>
+        <v>0.9058466913207468</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9608794337987505</v>
+        <v>0.9608073319068343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>498</v>
@@ -1704,19 +1704,19 @@
         <v>526387</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>513686</v>
+        <v>511404</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>537385</v>
+        <v>537801</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9255126830793494</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9031805684410563</v>
+        <v>0.8991695793805542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9448502565935726</v>
+        <v>0.9455816350799638</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>817</v>
@@ -1725,19 +1725,19 @@
         <v>854782</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>837833</v>
+        <v>838539</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>870249</v>
+        <v>868449</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9298115374296131</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9113746396474836</v>
+        <v>0.9121430142527421</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9466358031525933</v>
+        <v>0.944678406696464</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>6449</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2829</v>
+        <v>2666</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13823</v>
+        <v>14969</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02162703543575261</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009486841708193352</v>
+        <v>0.008939050763627972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04635430486125133</v>
+        <v>0.05019712090221583</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -1850,19 +1850,19 @@
         <v>81514</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66337</v>
+        <v>66005</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>99594</v>
+        <v>100468</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06527609334001667</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05312218731578674</v>
+        <v>0.05285652314168632</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0797546957365379</v>
+        <v>0.080453919468194</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1871,19 +1871,19 @@
         <v>87963</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71682</v>
+        <v>70423</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107756</v>
+        <v>106918</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0568620620442531</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04633723557874899</v>
+        <v>0.04552324486177146</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06965631879714729</v>
+        <v>0.06911470192381135</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>291752</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284378</v>
+        <v>283232</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>295372</v>
+        <v>295535</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9783729645642474</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9536456951387488</v>
+        <v>0.949802879097784</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9905131582918066</v>
+        <v>0.991060949236372</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1159</v>
@@ -1921,19 +1921,19 @@
         <v>1167246</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1149166</v>
+        <v>1148292</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1182423</v>
+        <v>1182755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9347239066599833</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9202453042634621</v>
+        <v>0.919546080531806</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9468778126842132</v>
+        <v>0.9471434768583137</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1459</v>
@@ -1942,19 +1942,19 @@
         <v>1458997</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1439204</v>
+        <v>1440042</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1475278</v>
+        <v>1476537</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9431379379557469</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9303436812028528</v>
+        <v>0.9308852980761887</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9536627644212511</v>
+        <v>0.9544767551382289</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>163611</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>141139</v>
+        <v>139193</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>189916</v>
+        <v>189866</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05003094774181815</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04315941134360243</v>
+        <v>0.04256410087705702</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05807485580840389</v>
+        <v>0.05805950062006252</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>200</v>
@@ -2067,19 +2067,19 @@
         <v>211529</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>183284</v>
+        <v>183315</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>239814</v>
+        <v>243259</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06261741136401183</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05425623325883237</v>
+        <v>0.05426535467438855</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07099020589841049</v>
+        <v>0.07201021109360203</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>362</v>
@@ -2088,19 +2088,19 @@
         <v>375140</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>334316</v>
+        <v>338090</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>411327</v>
+        <v>413196</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05642634888756871</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05028588973294881</v>
+        <v>0.05085351381382768</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06186942801698705</v>
+        <v>0.06215056700684606</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3106579</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3080274</v>
+        <v>3080324</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3129051</v>
+        <v>3130997</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9499690522581818</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9419251441915961</v>
+        <v>0.9419404993799374</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9568405886563975</v>
+        <v>0.957435899122943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3096</v>
@@ -2138,19 +2138,19 @@
         <v>3166595</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3138310</v>
+        <v>3134865</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3194840</v>
+        <v>3194809</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9373825886359882</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9290097941015895</v>
+        <v>0.9279897889063979</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9457437667411674</v>
+        <v>0.9457346453256115</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6141</v>
@@ -2159,19 +2159,19 @@
         <v>6273174</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6236987</v>
+        <v>6235118</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6313998</v>
+        <v>6310224</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9435736511124313</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.938130571983013</v>
+        <v>0.9378494329931545</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9497141102670512</v>
+        <v>0.9491464861861725</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>20528</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12002</v>
+        <v>11200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32442</v>
+        <v>33241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04695196137109437</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02745161698725525</v>
+        <v>0.02561737002954845</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07420226676222136</v>
+        <v>0.07602894594999821</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2526,19 +2526,19 @@
         <v>18363</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10994</v>
+        <v>10910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28332</v>
+        <v>28341</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05839656670993328</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0349627478664304</v>
+        <v>0.0346941554565326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09009797660103119</v>
+        <v>0.09012810084999343</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -2547,19 +2547,19 @@
         <v>38891</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26308</v>
+        <v>26719</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54354</v>
+        <v>54063</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05173973873950699</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03499981303000185</v>
+        <v>0.03554673630961464</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07231161899520332</v>
+        <v>0.07192446877834013</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>416683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>404769</v>
+        <v>403970</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425209</v>
+        <v>426011</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9530480386289056</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9257977332377785</v>
+        <v>0.9239710540500017</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9725483830127447</v>
+        <v>0.9743826299704514</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -2597,19 +2597,19 @@
         <v>296091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>286122</v>
+        <v>286113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>303460</v>
+        <v>303544</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9416034332900667</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9099020233989688</v>
+        <v>0.9098718991500065</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9650372521335696</v>
+        <v>0.9653058445434675</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>655</v>
@@ -2618,19 +2618,19 @@
         <v>712774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>697311</v>
+        <v>697602</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>725357</v>
+        <v>724946</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.948260261260493</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9276883810047967</v>
+        <v>0.9280755312216599</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9650001869699981</v>
+        <v>0.9644532636903853</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>22691</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14125</v>
+        <v>14012</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34256</v>
+        <v>34503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05418135281472592</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03372759043507376</v>
+        <v>0.03345814056252485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08179718361408689</v>
+        <v>0.08238693217481094</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -2743,19 +2743,19 @@
         <v>20267</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13048</v>
+        <v>11708</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30547</v>
+        <v>31022</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0599597880268933</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03860220235008071</v>
+        <v>0.03463702795275819</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09037335799622473</v>
+        <v>0.09177710068748422</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -2764,19 +2764,19 @@
         <v>42958</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31496</v>
+        <v>31605</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59352</v>
+        <v>57697</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05676215942432965</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04161712966105886</v>
+        <v>0.04176076409932493</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07842432535959519</v>
+        <v>0.07623685239321185</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>396106</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>384541</v>
+        <v>384294</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>404672</v>
+        <v>404785</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9458186471852741</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9182028163859132</v>
+        <v>0.917613067825189</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9662724095649263</v>
+        <v>0.9665418594374752</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>287</v>
@@ -2814,19 +2814,19 @@
         <v>317744</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>307464</v>
+        <v>306989</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>324963</v>
+        <v>326303</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9400402119731067</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9096266420037756</v>
+        <v>0.908222899312516</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9613977976499193</v>
+        <v>0.9653629720472419</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>641</v>
@@ -2835,19 +2835,19 @@
         <v>713850</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>697456</v>
+        <v>699111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725312</v>
+        <v>725203</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9432378405756704</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9215756746404048</v>
+        <v>0.9237631476067879</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9583828703389411</v>
+        <v>0.9582392359006751</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>52619</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38440</v>
+        <v>39717</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69974</v>
+        <v>69758</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08360041114796379</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06107329450457823</v>
+        <v>0.06310168892140598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1111738244133511</v>
+        <v>0.1108300924760953</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -2960,19 +2960,19 @@
         <v>23418</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15495</v>
+        <v>15159</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34725</v>
+        <v>34379</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09002362337949101</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05956782527856619</v>
+        <v>0.05827482650732244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1334916134855917</v>
+        <v>0.1321628481305436</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -2981,19 +2981,19 @@
         <v>76037</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58255</v>
+        <v>59307</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94709</v>
+        <v>95183</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08547875113731263</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06548897298083979</v>
+        <v>0.06667151083229325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1064686610091613</v>
+        <v>0.1070024013520793</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>576796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>559441</v>
+        <v>559657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>590975</v>
+        <v>589698</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9163995888520362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8888261755866489</v>
+        <v>0.8891699075239045</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9389267054954217</v>
+        <v>0.936898311078594</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>222</v>
@@ -3031,19 +3031,19 @@
         <v>236711</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225404</v>
+        <v>225750</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>244634</v>
+        <v>244970</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.909976376620509</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8665083865144075</v>
+        <v>0.8678371518694566</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9404321747214338</v>
+        <v>0.9417251734926777</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>767</v>
@@ -3052,19 +3052,19 @@
         <v>813507</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>794835</v>
+        <v>794361</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>831289</v>
+        <v>830237</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9145212488626874</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8935313389908387</v>
+        <v>0.8929975986479207</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9345110270191602</v>
+        <v>0.9333284891677071</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>106443</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87580</v>
+        <v>87956</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127316</v>
+        <v>128482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09183926546485836</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07556422884602276</v>
+        <v>0.07588929029848589</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1098486391225102</v>
+        <v>0.1108549184096816</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -3177,19 +3177,19 @@
         <v>74812</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59555</v>
+        <v>58845</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93168</v>
+        <v>94385</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.097582454768199</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07768166188488777</v>
+        <v>0.07675567435245374</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1215253891664099</v>
+        <v>0.1231128201321144</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>168</v>
@@ -3198,19 +3198,19 @@
         <v>181255</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158798</v>
+        <v>157199</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>210657</v>
+        <v>208033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09412577685367531</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08246396293521406</v>
+        <v>0.08163328759657398</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1093943794605492</v>
+        <v>0.1080318710460094</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1052566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1031693</v>
+        <v>1030527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1071429</v>
+        <v>1071053</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9081607345351417</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8901513608774901</v>
+        <v>0.8891450815903185</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9244357711539773</v>
+        <v>0.9241107097015143</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>643</v>
@@ -3248,19 +3248,19 @@
         <v>691845</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>673489</v>
+        <v>672272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>707102</v>
+        <v>707812</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.902417545231801</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8784746108335902</v>
+        <v>0.8768871798678856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9223183381151124</v>
+        <v>0.9232443256475465</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1626</v>
@@ -3269,19 +3269,19 @@
         <v>1744412</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1715010</v>
+        <v>1717634</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1766869</v>
+        <v>1768468</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9058742231463247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8906056205394508</v>
+        <v>0.8919681289539906</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9175360370647859</v>
+        <v>0.9183667124034258</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>35674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25225</v>
+        <v>25492</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49742</v>
+        <v>49690</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06986643450709154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04940368846933645</v>
+        <v>0.04992586717220244</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09741980718070352</v>
+        <v>0.09731674964045942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -3394,19 +3394,19 @@
         <v>85251</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>68766</v>
+        <v>66929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106111</v>
+        <v>103514</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1119477828605121</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09030016682851608</v>
+        <v>0.08788843631572299</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1393407391462847</v>
+        <v>0.1359303308763556</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -3415,19 +3415,19 @@
         <v>120924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101558</v>
+        <v>101420</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144129</v>
+        <v>143825</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09505738411671111</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07983380860735614</v>
+        <v>0.07972562784482799</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1132984226565135</v>
+        <v>0.1130597847530005</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>474922</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>460854</v>
+        <v>460906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>485371</v>
+        <v>485104</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9301335654929085</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9025801928192965</v>
+        <v>0.9026832503595406</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9505963115306637</v>
+        <v>0.9500741328277975</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>626</v>
@@ -3465,19 +3465,19 @@
         <v>676271</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>655411</v>
+        <v>658008</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>692756</v>
+        <v>694593</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8880522171394879</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8606592608537152</v>
+        <v>0.8640696691236444</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.909699833171484</v>
+        <v>0.9121115636842769</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1080</v>
@@ -3486,19 +3486,19 @@
         <v>1151194</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1127989</v>
+        <v>1128293</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1170560</v>
+        <v>1170698</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9049426158832888</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8867015773434863</v>
+        <v>0.8869402152469995</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9201661913926439</v>
+        <v>0.9202743721551719</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>12550</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6681</v>
+        <v>6786</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21991</v>
+        <v>23062</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04702440369299288</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0250336096477217</v>
+        <v>0.02542682265915463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0823994352132611</v>
+        <v>0.08641310259834618</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>95</v>
@@ -3611,19 +3611,19 @@
         <v>101242</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82962</v>
+        <v>84900</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>123698</v>
+        <v>122673</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09126263291525193</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07478430552028366</v>
+        <v>0.07653128370166173</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1115044203254235</v>
+        <v>0.1105805198867908</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -3632,19 +3632,19 @@
         <v>113792</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>93601</v>
+        <v>94307</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133510</v>
+        <v>136384</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08268386589970514</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0680126968243786</v>
+        <v>0.06852559585939309</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0970114465266446</v>
+        <v>0.09909934224529331</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>254332</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244891</v>
+        <v>243820</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260201</v>
+        <v>260096</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9529755963070071</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9176005647867389</v>
+        <v>0.9135868974016538</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9749663903522783</v>
+        <v>0.9745731773408454</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>949</v>
@@ -3682,19 +3682,19 @@
         <v>1008109</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>985653</v>
+        <v>986678</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1026389</v>
+        <v>1024451</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9087373670847481</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8884955796745765</v>
+        <v>0.889419480113209</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9252156944797163</v>
+        <v>0.9234687162983383</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1203</v>
@@ -3703,19 +3703,19 @@
         <v>1262441</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1242723</v>
+        <v>1239849</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1282632</v>
+        <v>1281926</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9173161341002949</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9029885534733553</v>
+        <v>0.9009006577547067</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9319873031756212</v>
+        <v>0.931474404140607</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>250504</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>219660</v>
+        <v>220396</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>285770</v>
+        <v>284633</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07320598546282239</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0641922774957935</v>
+        <v>0.06440724856718606</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08351178932771428</v>
+        <v>0.08317956613180717</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>296</v>
@@ -3828,19 +3828,19 @@
         <v>323353</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>288248</v>
+        <v>284896</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>359336</v>
+        <v>357676</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0910822016944299</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08119373529172207</v>
+        <v>0.0802495511404395</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.101217787406259</v>
+        <v>0.1007502660859862</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>523</v>
@@ -3849,19 +3849,19 @@
         <v>573857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>522460</v>
+        <v>529898</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>618474</v>
+        <v>628600</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08230846484127326</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07493656384799154</v>
+        <v>0.07600331172958898</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08870786815048004</v>
+        <v>0.09016014495270022</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3171406</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3136140</v>
+        <v>3137277</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3202250</v>
+        <v>3201514</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9267940145371776</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9164882106722857</v>
+        <v>0.9168204338681926</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9358077225042064</v>
+        <v>0.9355927514328137</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2994</v>
@@ -3899,19 +3899,19 @@
         <v>3226772</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3190789</v>
+        <v>3192449</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3261877</v>
+        <v>3265229</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9089177983055701</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8987822125937411</v>
+        <v>0.8992497339140139</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.918806264708278</v>
+        <v>0.9197504488595608</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5972</v>
@@ -3920,19 +3920,19 @@
         <v>6398178</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6353561</v>
+        <v>6343435</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6449575</v>
+        <v>6442137</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9176915351587267</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9112921318495201</v>
+        <v>0.9098398550473002</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9250634361520085</v>
+        <v>0.9239966882704111</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>15727</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9691</v>
+        <v>8706</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25505</v>
+        <v>25507</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03665102626818221</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02258486951404686</v>
+        <v>0.02028978173251115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05943966209444684</v>
+        <v>0.05944432646006112</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -4287,19 +4287,19 @@
         <v>16069</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8530</v>
+        <v>8928</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25724</v>
+        <v>26207</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04629993831720016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02457859062929908</v>
+        <v>0.02572377474955578</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07412102401277008</v>
+        <v>0.07551223492868674</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -4308,19 +4308,19 @@
         <v>31795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21543</v>
+        <v>21881</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45746</v>
+        <v>45156</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04096554739308331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02775622002814891</v>
+        <v>0.02819239115567597</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05893979019164895</v>
+        <v>0.05817907398920709</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>413365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>403587</v>
+        <v>403585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>419401</v>
+        <v>420386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9633489737318178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9405603379055536</v>
+        <v>0.9405556735399381</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9774151304859532</v>
+        <v>0.9797102182674887</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>318</v>
@@ -4358,19 +4358,19 @@
         <v>330986</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>321331</v>
+        <v>320848</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>338525</v>
+        <v>338127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9537000616827999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9258789759872296</v>
+        <v>0.9244877650713132</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9754214093707005</v>
+        <v>0.9742762252504443</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>699</v>
@@ -4379,19 +4379,19 @@
         <v>744352</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>730401</v>
+        <v>730991</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>754604</v>
+        <v>754266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9590344526069167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9410602098083511</v>
+        <v>0.9418209260107931</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9722437799718512</v>
+        <v>0.9718076088443242</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>16787</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9672</v>
+        <v>10405</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24979</v>
+        <v>26171</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04450000717564776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02564049576289165</v>
+        <v>0.02758362839589926</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06621669340014241</v>
+        <v>0.06937842252005885</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -4504,19 +4504,19 @@
         <v>11756</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5472</v>
+        <v>5999</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21521</v>
+        <v>20797</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03157884511897793</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0146987089273688</v>
+        <v>0.01611356858937011</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05780996164476922</v>
+        <v>0.0558638134674009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -4525,19 +4525,19 @@
         <v>28543</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20004</v>
+        <v>19087</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41817</v>
+        <v>41603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03808212653501435</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02668981074733284</v>
+        <v>0.02546631077595689</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05579357550149758</v>
+        <v>0.05550746053440237</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>360440</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352248</v>
+        <v>351056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>367555</v>
+        <v>366822</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9554999928243523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9337833065998576</v>
+        <v>0.9306215774799411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9743595042371084</v>
+        <v>0.9724163716041007</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -4575,19 +4575,19 @@
         <v>360517</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>350752</v>
+        <v>351476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366801</v>
+        <v>366274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9684211548810221</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9421900383552309</v>
+        <v>0.944136186532599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9853012910726312</v>
+        <v>0.9838864314106299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>679</v>
@@ -4596,19 +4596,19 @@
         <v>720957</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>707683</v>
+        <v>707897</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>729496</v>
+        <v>730413</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9619178734649857</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9442064244985025</v>
+        <v>0.9444925394655976</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9733101892526671</v>
+        <v>0.974533689224043</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>33561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23014</v>
+        <v>24159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46149</v>
+        <v>46528</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06430408608487566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04409481141394225</v>
+        <v>0.04628904122150231</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08842349430199205</v>
+        <v>0.08914815454668119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -4721,19 +4721,19 @@
         <v>13580</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7413</v>
+        <v>7776</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22800</v>
+        <v>23754</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0817460320950712</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04462468047857882</v>
+        <v>0.04680801210611332</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.137249724858946</v>
+        <v>0.1429894656547454</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -4742,19 +4742,19 @@
         <v>47141</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34082</v>
+        <v>34842</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61401</v>
+        <v>62977</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06851535249639333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04953584550530455</v>
+        <v>0.05063963458595201</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08924151411124477</v>
+        <v>0.0915321988646982</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>488353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>475765</v>
+        <v>475386</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>498900</v>
+        <v>497755</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9356959139151243</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9115765056980074</v>
+        <v>0.9108518454533187</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9559051885860574</v>
+        <v>0.9537109587784977</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>141</v>
@@ -4792,19 +4792,19 @@
         <v>152543</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143323</v>
+        <v>142369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158710</v>
+        <v>158347</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9182539679049289</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8627502751410542</v>
+        <v>0.8570105343452545</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9553753195214213</v>
+        <v>0.9531919878938864</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>610</v>
@@ -4813,19 +4813,19 @@
         <v>640895</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626635</v>
+        <v>625059</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653954</v>
+        <v>653194</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9314846475036067</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9107584858887554</v>
+        <v>0.9084678011353021</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9504641544946956</v>
+        <v>0.9493603654140481</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>73432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58298</v>
+        <v>58513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94684</v>
+        <v>93301</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06387390777412094</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05070983674838585</v>
+        <v>0.0508967126040165</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08236019485717128</v>
+        <v>0.08115714671081919</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -4938,19 +4938,19 @@
         <v>57577</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44400</v>
+        <v>44009</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73511</v>
+        <v>74248</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06971572562802564</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05376065008472797</v>
+        <v>0.05328803195551469</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08901018564019444</v>
+        <v>0.08990169320310921</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -4959,19 +4959,19 @@
         <v>131008</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107893</v>
+        <v>110268</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154027</v>
+        <v>154702</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06631611561202652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05461501420080747</v>
+        <v>0.05581751408122122</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07796812415414739</v>
+        <v>0.07830996330323524</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1076206</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1054954</v>
+        <v>1056337</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1091340</v>
+        <v>1091125</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9361260922258791</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9176398051428292</v>
+        <v>0.918842853289181</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9492901632516142</v>
+        <v>0.9491032873959839</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>745</v>
@@ -5009,19 +5009,19 @@
         <v>768299</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>752365</v>
+        <v>751628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>781476</v>
+        <v>781867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9302842743719744</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9109898143598055</v>
+        <v>0.9100983067968905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.946239349915272</v>
+        <v>0.9467119680444852</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1780</v>
@@ -5030,19 +5030,19 @@
         <v>1844506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1821487</v>
+        <v>1820812</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1867621</v>
+        <v>1865246</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9336838843879735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9220318758458523</v>
+        <v>0.9216900366967647</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9453849857991924</v>
+        <v>0.9441824859187787</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>34775</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24791</v>
+        <v>24249</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47900</v>
+        <v>47795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05602464368183729</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03993935856712025</v>
+        <v>0.03906716103183545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07716996679334973</v>
+        <v>0.07700126015939834</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -5155,19 +5155,19 @@
         <v>59207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43283</v>
+        <v>46049</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74973</v>
+        <v>78044</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08019923926314537</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05862901771796786</v>
+        <v>0.06237639951933439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1015563314352761</v>
+        <v>0.1057158356767125</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -5176,19 +5176,19 @@
         <v>93981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75527</v>
+        <v>75347</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113417</v>
+        <v>114810</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06915739553963079</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05557738034724668</v>
+        <v>0.05544486524458777</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08345927928118599</v>
+        <v>0.08448399014866158</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>585931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>572806</v>
+        <v>572911</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>595915</v>
+        <v>596457</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9439753563181628</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9228300332066504</v>
+        <v>0.9229987398406019</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9600606414328797</v>
+        <v>0.9609328389681646</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>646</v>
@@ -5226,19 +5226,19 @@
         <v>679037</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>663271</v>
+        <v>660200</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>694961</v>
+        <v>692195</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9198007607368546</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.898443668564723</v>
+        <v>0.8942841643232864</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.941370982282032</v>
+        <v>0.9376236004806652</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1211</v>
@@ -5247,19 +5247,19 @@
         <v>1264969</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1245533</v>
+        <v>1244140</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1283423</v>
+        <v>1283603</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9308426044603693</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9165407207188139</v>
+        <v>0.9155160098513383</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9444226196527533</v>
+        <v>0.9445551347554121</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>14213</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7919</v>
+        <v>8862</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23542</v>
+        <v>23345</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04949769073152042</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02757729122701686</v>
+        <v>0.03086232474349357</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08198652367348935</v>
+        <v>0.08129883338708095</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -5372,19 +5372,19 @@
         <v>85282</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69285</v>
+        <v>67103</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107711</v>
+        <v>104706</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07881711525630634</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0640326090093499</v>
+        <v>0.06201651185432996</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09954537906980498</v>
+        <v>0.09676865447114727</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -5393,19 +5393,19 @@
         <v>99495</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80492</v>
+        <v>80521</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>120550</v>
+        <v>122357</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07266818526195321</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05878879630959549</v>
+        <v>0.05881023295779749</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08804576437079631</v>
+        <v>0.08936611554257298</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>272932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263603</v>
+        <v>263800</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>279226</v>
+        <v>278283</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9505023092684796</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9180134763265109</v>
+        <v>0.9187011666129191</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9724227087729835</v>
+        <v>0.969137675256507</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>918</v>
@@ -5443,19 +5443,19 @@
         <v>996743</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>974314</v>
+        <v>977319</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1012740</v>
+        <v>1014922</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9211828847436937</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.900454620930195</v>
+        <v>0.9032313455288528</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9359673909906502</v>
+        <v>0.9379834881456701</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1176</v>
@@ -5464,19 +5464,19 @@
         <v>1269675</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1248620</v>
+        <v>1246813</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1288678</v>
+        <v>1288649</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9273318147380468</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9119542356292044</v>
+        <v>0.910633884457427</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9412112036904047</v>
+        <v>0.9411897670422025</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>188494</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>164216</v>
+        <v>162876</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>220779</v>
+        <v>217826</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05567326062076995</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04850244052652439</v>
+        <v>0.04810676325302073</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06520893983998097</v>
+        <v>0.06433676509794885</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>216</v>
@@ -5589,19 +5589,19 @@
         <v>243470</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>211709</v>
+        <v>211656</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>274748</v>
+        <v>273610</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06894041627311476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05994721536895152</v>
+        <v>0.05993224408887641</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07779720843242215</v>
+        <v>0.07747476368780001</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>395</v>
@@ -5610,19 +5610,19 @@
         <v>431964</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>389582</v>
+        <v>388951</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>476012</v>
+        <v>473722</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06244672857905934</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05631982249870324</v>
+        <v>0.05622851433671801</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06881457362914326</v>
+        <v>0.06848346355920239</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3197228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3164943</v>
+        <v>3167896</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3221506</v>
+        <v>3222846</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9443267393792301</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9347910601600192</v>
+        <v>0.9356632349020512</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9514975594734757</v>
+        <v>0.9518932367469792</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3110</v>
@@ -5660,19 +5660,19 @@
         <v>3288126</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3256848</v>
+        <v>3257986</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3319887</v>
+        <v>3319940</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9310595837268852</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9222027915675779</v>
+        <v>0.9225252363122</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9400527846310485</v>
+        <v>0.9400677559111236</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6155</v>
@@ -5681,19 +5681,19 @@
         <v>6485354</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6441306</v>
+        <v>6443596</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6527736</v>
+        <v>6528367</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9375532714209407</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9311854263708568</v>
+        <v>0.9315165364407977</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9436801775012967</v>
+        <v>0.943771485663282</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>47362</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36013</v>
+        <v>34393</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61622</v>
+        <v>61483</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08601623984652319</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06540393013245285</v>
+        <v>0.06246283274019174</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1119136291659825</v>
+        <v>0.1116617234854331</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -6048,19 +6048,19 @@
         <v>28701</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20698</v>
+        <v>21433</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38531</v>
+        <v>38947</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05876473405283369</v>
+        <v>0.05876473405283368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04237795585971285</v>
+        <v>0.04388410139815314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07889004100457971</v>
+        <v>0.07974319489023142</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -6069,19 +6069,19 @@
         <v>76063</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61383</v>
+        <v>60655</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93171</v>
+        <v>92740</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07320627002159372</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05907725056997825</v>
+        <v>0.05837676547120662</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08967080510581653</v>
+        <v>0.08925667646243769</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>503256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488996</v>
+        <v>489135</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>514605</v>
+        <v>516225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9139837601534767</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8880863708340174</v>
+        <v>0.8883382765145671</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9345960698675474</v>
+        <v>0.9375371672598081</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>644</v>
@@ -6119,19 +6119,19 @@
         <v>459710</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>449880</v>
+        <v>449464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>467713</v>
+        <v>466978</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9412352659471664</v>
+        <v>0.9412352659471663</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9211099589954204</v>
+        <v>0.9202568051097687</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9576220441402872</v>
+        <v>0.9561158986018471</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1145</v>
@@ -6140,19 +6140,19 @@
         <v>962966</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>945858</v>
+        <v>946289</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>977646</v>
+        <v>978374</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9267937299784063</v>
+        <v>0.9267937299784064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9103291948941836</v>
+        <v>0.9107433235375624</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9409227494300217</v>
+        <v>0.9416232345287935</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>33772</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23981</v>
+        <v>24129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47830</v>
+        <v>47941</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06989141941821804</v>
+        <v>0.06989141941821801</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04962903373486677</v>
+        <v>0.04993540802694646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09898343882895785</v>
+        <v>0.09921385924052084</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -6265,19 +6265,19 @@
         <v>28051</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20621</v>
+        <v>20787</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37879</v>
+        <v>37048</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06629237617049021</v>
+        <v>0.06629237617049022</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04873303024536755</v>
+        <v>0.04912438805520787</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08951717652245035</v>
+        <v>0.0875545529251852</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -6286,19 +6286,19 @@
         <v>61824</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49031</v>
+        <v>48949</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79503</v>
+        <v>78729</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06821116231123393</v>
+        <v>0.06821116231123395</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05409637694191758</v>
+        <v>0.0540061462439604</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08771748401666764</v>
+        <v>0.08686375336963349</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>449440</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>435382</v>
+        <v>435271</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>459231</v>
+        <v>459083</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.930108580581782</v>
+        <v>0.9301085805817819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9010165611710422</v>
+        <v>0.9007861407594792</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9503709662651333</v>
+        <v>0.9500645919730535</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>547</v>
@@ -6336,19 +6336,19 @@
         <v>395092</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>385264</v>
+        <v>386095</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>402522</v>
+        <v>402356</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9337076238295098</v>
+        <v>0.9337076238295096</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9104828234775501</v>
+        <v>0.9124454470748149</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9512669697546325</v>
+        <v>0.9508756119447921</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>992</v>
@@ -6357,19 +6357,19 @@
         <v>844531</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>826852</v>
+        <v>827626</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>857324</v>
+        <v>857406</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.931788837688766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9122825159833321</v>
+        <v>0.9131362466303665</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9459036230580822</v>
+        <v>0.9459938537560398</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>57259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44178</v>
+        <v>44944</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73100</v>
+        <v>73112</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1214103013053119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09367541340008613</v>
+        <v>0.0952978173250348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1550007770442578</v>
+        <v>0.1550253743624225</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -6482,19 +6482,19 @@
         <v>22464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15636</v>
+        <v>15916</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32991</v>
+        <v>32999</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1198120754514448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08339580932311481</v>
+        <v>0.08488899864154049</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1759553016191456</v>
+        <v>0.1759969316855446</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -6503,19 +6503,19 @@
         <v>79723</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66262</v>
+        <v>64621</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96970</v>
+        <v>98834</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1209556526685266</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1005322902606039</v>
+        <v>0.09804328402210365</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1471229352014617</v>
+        <v>0.1499506649300411</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>414353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>398512</v>
+        <v>398500</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427434</v>
+        <v>426668</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8785896986946881</v>
+        <v>0.8785896986946879</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.844999222955742</v>
+        <v>0.8449746256375773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9063245865999138</v>
+        <v>0.904702182674965</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>256</v>
@@ -6553,19 +6553,19 @@
         <v>165033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>154506</v>
+        <v>154498</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>171861</v>
+        <v>171581</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8801879245485552</v>
+        <v>0.880187924548555</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8240446983808544</v>
+        <v>0.8240030683144549</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9166041906768855</v>
+        <v>0.9151110013584595</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>680</v>
@@ -6574,19 +6574,19 @@
         <v>579386</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>562139</v>
+        <v>560275</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>592847</v>
+        <v>594488</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8790443473314733</v>
+        <v>0.8790443473314735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8528770647985384</v>
+        <v>0.8500493350699592</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8994677097393962</v>
+        <v>0.9019567159778967</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>138618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>117926</v>
+        <v>117685</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161683</v>
+        <v>163631</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1224710770231359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1041896017821356</v>
+        <v>0.1039767485732118</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1428490052078561</v>
+        <v>0.1445706329697026</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -6699,19 +6699,19 @@
         <v>79216</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66820</v>
+        <v>66348</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93653</v>
+        <v>94034</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09198198262167281</v>
+        <v>0.0919819826216728</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07758806690141229</v>
+        <v>0.0770404556995289</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1087454208858446</v>
+        <v>0.1091875561425312</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>286</v>
@@ -6720,19 +6720,19 @@
         <v>217834</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>191451</v>
+        <v>193867</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>244225</v>
+        <v>246629</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1092965450819222</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09605925017475411</v>
+        <v>0.09727156844961792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1225379749262001</v>
+        <v>0.1237442005572673</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>993225</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>970160</v>
+        <v>968212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1013917</v>
+        <v>1014158</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.877528922976864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8571509947921442</v>
+        <v>0.8554293670302973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8958103982178645</v>
+        <v>0.8960232514267882</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1103</v>
@@ -6770,19 +6770,19 @@
         <v>781995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>767558</v>
+        <v>767177</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>794391</v>
+        <v>794863</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9080180173783273</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8912545791141554</v>
+        <v>0.890812443857469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9224119330985877</v>
+        <v>0.9229595443004713</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2062</v>
@@ -6791,19 +6791,19 @@
         <v>1775220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1748829</v>
+        <v>1746425</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1801603</v>
+        <v>1799187</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8907034549180778</v>
+        <v>0.890703454918078</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8774620250738002</v>
+        <v>0.8762557994427327</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.903940749825246</v>
+        <v>0.9027284315503823</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>85679</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67725</v>
+        <v>69362</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103224</v>
+        <v>104969</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1508528687389232</v>
+        <v>0.1508528687389231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1192409096514313</v>
+        <v>0.1221234060989172</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1817436837296901</v>
+        <v>0.1848171368791576</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -6916,19 +6916,19 @@
         <v>125041</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109627</v>
+        <v>108428</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>141940</v>
+        <v>142228</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1504981208247827</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1319459668642984</v>
+        <v>0.1305029877148959</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1708372362055402</v>
+        <v>0.1711832222518154</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>308</v>
@@ -6937,19 +6937,19 @@
         <v>210720</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>184351</v>
+        <v>187154</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>234574</v>
+        <v>235535</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1506421599577632</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.131790607496908</v>
+        <v>0.1337948966859833</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1676950322323132</v>
+        <v>0.1683817742111262</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>482285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>464740</v>
+        <v>462995</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>500239</v>
+        <v>498602</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8491471312610769</v>
+        <v>0.8491471312610768</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8182563162703093</v>
+        <v>0.8151828631208424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8807590903485684</v>
+        <v>0.8778765939010829</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1075</v>
@@ -6987,19 +6987,19 @@
         <v>705809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>688910</v>
+        <v>688622</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>721223</v>
+        <v>722422</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8495018791752172</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8291627637944596</v>
+        <v>0.8288167777481844</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8680540331357015</v>
+        <v>0.8694970122851039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1529</v>
@@ -7008,19 +7008,19 @@
         <v>1188094</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1164240</v>
+        <v>1163279</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1214463</v>
+        <v>1211660</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8493578400422367</v>
+        <v>0.8493578400422366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8323049677676868</v>
+        <v>0.8316182257888737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8682093925030919</v>
+        <v>0.8662051033140166</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>11944</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5533</v>
+        <v>5575</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25379</v>
+        <v>26209</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05034833709649696</v>
+        <v>0.05034833709649695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02332229063838036</v>
+        <v>0.02350194447495834</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1069797664715807</v>
+        <v>0.1104808623148321</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>206</v>
@@ -7133,19 +7133,19 @@
         <v>127029</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>110269</v>
+        <v>110263</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>147133</v>
+        <v>145055</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.150457703404166</v>
+        <v>0.1504577034041661</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1306069849743536</v>
+        <v>0.1305993111116585</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1742707460037163</v>
+        <v>0.1718086490911819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>216</v>
@@ -7154,19 +7154,19 @@
         <v>138973</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>118859</v>
+        <v>120404</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>159793</v>
+        <v>160148</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1284988243545255</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1099014836606881</v>
+        <v>0.1113293419870474</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1477503983303208</v>
+        <v>0.1480785840809733</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>225284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211849</v>
+        <v>211019</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231695</v>
+        <v>231653</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9496516629035031</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8930202335284193</v>
+        <v>0.8895191376851691</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9766777093616197</v>
+        <v>0.9764980555250419</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>953</v>
@@ -7204,19 +7204,19 @@
         <v>717252</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>697148</v>
+        <v>699226</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>734012</v>
+        <v>734018</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8495422965958338</v>
+        <v>0.849542296595834</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8257292539962826</v>
+        <v>0.8281913509088181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8693930150256461</v>
+        <v>0.8694006888883413</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1055</v>
@@ -7225,19 +7225,19 @@
         <v>942536</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>921716</v>
+        <v>921361</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>962650</v>
+        <v>961105</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8715011756454746</v>
+        <v>0.8715011756454747</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8522496016696791</v>
+        <v>0.8519214159190265</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8900985163393119</v>
+        <v>0.8886706580129526</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>374634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>337552</v>
+        <v>340036</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>413829</v>
+        <v>415391</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1088268921931789</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09805513460703544</v>
+        <v>0.09877653026791793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1202124803560958</v>
+        <v>0.1206663072011175</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>666</v>
@@ -7350,19 +7350,19 @@
         <v>410503</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>380842</v>
+        <v>380380</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>441177</v>
+        <v>444739</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1129183973988055</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1047595655510624</v>
+        <v>0.1046324528321562</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1213560450416203</v>
+        <v>0.1223358985793279</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1081</v>
@@ -7371,19 +7371,19 @@
         <v>785137</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>734675</v>
+        <v>733880</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>833252</v>
+        <v>831841</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1109284046329351</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1037988636904856</v>
+        <v>0.1036865278780438</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1177264321709253</v>
+        <v>0.1175270556177413</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3067842</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3028647</v>
+        <v>3027085</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3104924</v>
+        <v>3102440</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8911731078068211</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8797875196439043</v>
+        <v>0.8793336927988826</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9019448653929645</v>
+        <v>0.901223469732082</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4578</v>
@@ -7421,19 +7421,19 @@
         <v>3224890</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3194216</v>
+        <v>3190654</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3254551</v>
+        <v>3255013</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8870816026011945</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8786439549583791</v>
+        <v>0.8776641014206717</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8952404344489375</v>
+        <v>0.8953675471678437</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7463</v>
@@ -7442,19 +7442,19 @@
         <v>6292732</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6244617</v>
+        <v>6246028</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6343194</v>
+        <v>6343989</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8890715953670649</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8822735678290746</v>
+        <v>0.8824729443822588</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8962011363095143</v>
+        <v>0.8963134721219562</v>
       </c>
     </row>
     <row r="24">
